--- a/cashloan-manage/src/main/webapp/template/黑名单模板.xlsx
+++ b/cashloan-manage/src/main/webapp/template/黑名单模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41DD7FD9-0F68-C241-B024-CB66F78D449B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4100" yWindow="1280" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="黑名单" sheetId="1" r:id="rId1"/>
@@ -19,37 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>429101199507145321</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手机号</t>
+    <t>类别</t>
+    <rPh sb="0" eb="2">
+      <t>lei'bi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18511111111</t>
+    <t>对应值</t>
+    <rPh sb="0" eb="2">
+      <t>dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,11 +93,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -378,41 +376,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
